--- a/outputfiles/Charts/Graphs/methodTimes.xlsx
+++ b/outputfiles/Charts/Graphs/methodTimes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\University\uol-inf co7506\Git\Assignment3\CodeAnalysisToolkit\outputfiles\Graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\University\uol-inf co7506\Git\Assignment3\CodeAnalysisToolkit\outputfiles\Charts\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11246,11 +11246,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="403106736"/>
-        <c:axId val="403095760"/>
+        <c:axId val="348734304"/>
+        <c:axId val="348733520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="403106736"/>
+        <c:axId val="348734304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11293,7 +11293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403095760"/>
+        <c:crossAx val="348733520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11301,7 +11301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="403095760"/>
+        <c:axId val="348733520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11352,7 +11352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403106736"/>
+        <c:crossAx val="348734304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11949,15 +11949,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
